--- a/Sampling/Copy of PAA PROFILE DATA_6-27-19_2.xlsx
+++ b/Sampling/Copy of PAA PROFILE DATA_6-27-19_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="14430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="14430" tabRatio="526" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of PAA PROFILE DATA_6-27-1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Newhart, Kathryn</author>
+  </authors>
+  <commentList>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Newhart, Kathryn:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 deleted
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Newhart, Kathryn:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0.03 deleted</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="213">
   <si>
     <t>LOCATION_CODE</t>
   </si>
@@ -658,6 +717,18 @@
   </si>
   <si>
     <t>HRT</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -665,10 +736,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +754,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -725,14 +809,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -753,6 +836,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,7 +1296,7 @@
             <c:v>Actual</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1243,8 +1327,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1286,13 +1369,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$K$5:$K$76</c:f>
+              <c:f>Sheet1!$C$2:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>4.1440858098467288</c:v>
                 </c:pt>
@@ -1326,9 +1406,6 @@
                 <c:pt idx="11">
                   <c:v>85.015081026762132</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>1.9203870446079037</c:v>
                 </c:pt>
@@ -1362,9 +1439,6 @@
                 <c:pt idx="23">
                   <c:v>38.502026420002721</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>1.6758424283183231</c:v>
                 </c:pt>
@@ -1398,9 +1472,6 @@
                 <c:pt idx="35">
                   <c:v>33.462776576392379</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="37">
                   <c:v>3.8603125888770262</c:v>
                 </c:pt>
@@ -1434,9 +1505,6 @@
                 <c:pt idx="47">
                   <c:v>79.026003212922731</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="49">
                   <c:v>2.016837203966154</c:v>
                 </c:pt>
@@ -1469,9 +1537,6 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>40.494964106994246</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1.9335821259648005</c:v>
@@ -1511,9 +1576,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$L$5:$L$76</c:f>
+              <c:f>Sheet1!$D$2:$D$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="1">
                   <c:v>1.18</c:v>
@@ -1524,67 +1589,61 @@
                 <c:pt idx="9">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="General">
                   <c:v>1.21</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="General">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="General">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="General">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="General">
                   <c:v>1.29</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="General">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="General">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="General">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="General">
                   <c:v>1.0900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="43" formatCode="General">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="45" formatCode="General">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="General">
                   <c:v>1.24</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="55" formatCode="General">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="57" formatCode="General">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="59" formatCode="General">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="61" formatCode="General">
                   <c:v>1.25</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="67" formatCode="General">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="69" formatCode="General">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="71" formatCode="General">
                   <c:v>0.49</c:v>
                 </c:pt>
               </c:numCache>
@@ -1627,218 +1686,233 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$K$12:$K$72</c:f>
+              <c:f>Sheet1!$C$2:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
+                <c:ptCount val="72"/>
+                <c:pt idx="1">
+                  <c:v>4.1440858098467288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.196387066507997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.722537694838632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.248688323169265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.774838951499902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.300989579830535</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>32.353290836491801</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>45.537545416306145</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>58.721799996120495</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>71.868440511441321</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>85.015081026762132</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>1.9203870446079037</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>5.1124557724631208</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>6.7084901363907292</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>8.3045245003183386</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>9.9005588642459479</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>11.496593228173555</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>14.688661956028774</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>20.652420031457346</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>26.616178106885915</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>32.559102263444316</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>38.502026420002721</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>1.6758424283183231</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
                   <c:v>4.4498251429977964</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
                   <c:v>5.8368165003375339</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
                   <c:v>7.2238078576772704</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>8.610799215017007</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="30">
                   <c:v>9.9977905723567435</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="31">
                   <c:v>12.771773287036217</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="32">
                   <c:v>17.953868814634159</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="33">
                   <c:v>23.1359643422321</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>28.299370459312239</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="35">
                   <c:v>33.462776576392379</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>3.8603125888770262</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>10.415475504038472</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>13.693056961619195</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>16.970638419199918</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
                   <c:v>20.248219876780642</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>23.525801334361365</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>30.080964249522811</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>42.33506683761204</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>54.589169425701272</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>66.807586319312009</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>79.026003212922731</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="49">
                   <c:v>2.016837203966154</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="50">
                   <c:v>5.3742619249731831</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
                   <c:v>7.0529742854766972</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="52">
                   <c:v>8.7316866459802114</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
                   <c:v>10.410399006483726</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
                   <c:v>12.089111366987241</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="55">
                   <c:v>15.446536087994271</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="56">
                   <c:v>21.719472389232934</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="57">
                   <c:v>27.992408690471592</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="58">
                   <c:v>34.243686398732919</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="59">
                   <c:v>40.494964106994246</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="61">
                   <c:v>1.9335821259648005</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="62">
                   <c:v>5.148258069135708</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="63">
                   <c:v>6.7555960407211622</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="64">
                   <c:v>8.3629340123066154</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="65">
                   <c:v>9.9702719838920686</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="66">
                   <c:v>11.577609955477524</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67">
                   <c:v>14.79228589864843</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20.79831353642864</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.804341174208851</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.789421395363384</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38.774501616517917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$M$12:$M$72</c:f>
+              <c:f>Sheet1!$E$2:$E$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="7" formatCode="General">
                   <c:v>0.73044943809509277</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19" formatCode="General">
                   <c:v>0.85076677799224854</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="31" formatCode="General">
                   <c:v>0.99465590715408325</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43" formatCode="General">
                   <c:v>0.62516212463378906</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="55" formatCode="General">
                   <c:v>0.70046538114547729</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67" formatCode="General">
                   <c:v>0.88348847627639771</c:v>
                 </c:pt>
               </c:numCache>
@@ -2152,6 +2226,342 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13221762904636922"/>
+                  <c:y val="0.13989829396325459"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.88653564453125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.537590026855469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.16845703125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.885303497314453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.101356506347656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.903572082519531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>18.732996119788634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.574332977408796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.957108227174675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.210677554951381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.105050931522506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B70-43BF-B491-19472A6C517D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2073447664"/>
+        <c:axId val="2073460976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2073447664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073460976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2073460976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073447664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2193,6 +2603,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3264,6 +3714,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3271,13 +4237,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>105103</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>178676</xdr:rowOff>
+      <xdr:rowOff>178675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>400706</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>64376</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3303,16 +4269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>828</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182216</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3333,6 +4299,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3346,54 +4342,18 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="5">
           <cell r="K5">
             <v>0</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="K6">
-            <v>4.1440858098467288</v>
-          </cell>
-          <cell r="L6">
-            <v>1.18</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>11.196387066507997</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>14.722537694838632</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>18.248688323169265</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>21.774838951499902</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>25.300989579830535</v>
-          </cell>
-        </row>
         <row r="12">
           <cell r="K12">
             <v>32.353290836491801</v>
-          </cell>
-          <cell r="L12">
-            <v>0.46</v>
           </cell>
           <cell r="M12">
             <v>0.73044943809509277</v>
@@ -3403,25 +4363,31 @@
           <cell r="K13">
             <v>45.537545416306145</v>
           </cell>
+          <cell r="M13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="K14">
             <v>58.721799996120495</v>
           </cell>
-          <cell r="L14">
-            <v>0.21</v>
+          <cell r="M14">
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
           <cell r="K15">
             <v>71.868440511441321</v>
           </cell>
+          <cell r="M15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="K16">
             <v>85.015081026762132</v>
           </cell>
-          <cell r="L16">
+          <cell r="M16">
             <v>0</v>
           </cell>
         </row>
@@ -3434,8 +4400,8 @@
           <cell r="K18">
             <v>1.9203870446079037</v>
           </cell>
-          <cell r="L18">
-            <v>1.21</v>
+          <cell r="M18">
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
@@ -3467,9 +4433,6 @@
           <cell r="K24">
             <v>14.688661956028774</v>
           </cell>
-          <cell r="L24">
-            <v>0.85</v>
-          </cell>
           <cell r="M24">
             <v>0.85076677799224854</v>
           </cell>
@@ -3483,8 +4446,8 @@
           <cell r="K26">
             <v>26.616178106885915</v>
           </cell>
-          <cell r="L26">
-            <v>0.71</v>
+          <cell r="M26">
+            <v>0</v>
           </cell>
         </row>
         <row r="27">
@@ -3496,8 +4459,8 @@
           <cell r="K28">
             <v>38.502026420002721</v>
           </cell>
-          <cell r="L28">
-            <v>0.47</v>
+          <cell r="M28">
+            <v>0</v>
           </cell>
         </row>
         <row r="29">
@@ -3509,8 +4472,8 @@
           <cell r="K30">
             <v>1.6758424283183231</v>
           </cell>
-          <cell r="L30">
-            <v>1.29</v>
+          <cell r="M30">
+            <v>0</v>
           </cell>
         </row>
         <row r="31">
@@ -3542,9 +4505,6 @@
           <cell r="K36">
             <v>12.771773287036217</v>
           </cell>
-          <cell r="L36">
-            <v>1.07</v>
-          </cell>
           <cell r="M36">
             <v>0.99465590715408325</v>
           </cell>
@@ -3558,8 +4518,8 @@
           <cell r="K38">
             <v>23.1359643422321</v>
           </cell>
-          <cell r="L38">
-            <v>0.93</v>
+          <cell r="M38">
+            <v>0</v>
           </cell>
         </row>
         <row r="39">
@@ -3571,8 +4531,8 @@
           <cell r="K40">
             <v>33.462776576392379</v>
           </cell>
-          <cell r="L40">
-            <v>0.56999999999999995</v>
+          <cell r="M40">
+            <v>0</v>
           </cell>
         </row>
         <row r="41">
@@ -3584,8 +4544,8 @@
           <cell r="K42">
             <v>3.8603125888770262</v>
           </cell>
-          <cell r="L42">
-            <v>1.0900000000000001</v>
+          <cell r="M42">
+            <v>0</v>
           </cell>
         </row>
         <row r="43">
@@ -3617,9 +4577,6 @@
           <cell r="K48">
             <v>30.080964249522811</v>
           </cell>
-          <cell r="L48">
-            <v>0.57999999999999996</v>
-          </cell>
           <cell r="M48">
             <v>0.62516212463378906</v>
           </cell>
@@ -3633,8 +4590,8 @@
           <cell r="K50">
             <v>54.589169425701272</v>
           </cell>
-          <cell r="L50">
-            <v>0.16</v>
+          <cell r="M50">
+            <v>0</v>
           </cell>
         </row>
         <row r="51">
@@ -3646,8 +4603,8 @@
           <cell r="K52">
             <v>79.026003212922731</v>
           </cell>
-          <cell r="L52">
-            <v>0.03</v>
+          <cell r="M52">
+            <v>0</v>
           </cell>
         </row>
         <row r="53">
@@ -3659,8 +4616,8 @@
           <cell r="K54">
             <v>2.016837203966154</v>
           </cell>
-          <cell r="L54">
-            <v>1.24</v>
+          <cell r="M54">
+            <v>0</v>
           </cell>
         </row>
         <row r="55">
@@ -3692,9 +4649,6 @@
           <cell r="K60">
             <v>15.446536087994271</v>
           </cell>
-          <cell r="L60">
-            <v>0.7</v>
-          </cell>
           <cell r="M60">
             <v>0.70046538114547729</v>
           </cell>
@@ -3708,8 +4662,8 @@
           <cell r="K62">
             <v>27.992408690471592</v>
           </cell>
-          <cell r="L62">
-            <v>0.68</v>
+          <cell r="M62">
+            <v>0</v>
           </cell>
         </row>
         <row r="63">
@@ -3721,8 +4675,8 @@
           <cell r="K64">
             <v>40.494964106994246</v>
           </cell>
-          <cell r="L64">
-            <v>0.17</v>
+          <cell r="M64">
+            <v>0</v>
           </cell>
         </row>
         <row r="65">
@@ -3734,8 +4688,8 @@
           <cell r="K66">
             <v>1.9335821259648005</v>
           </cell>
-          <cell r="L66">
-            <v>1.25</v>
+          <cell r="M66">
+            <v>0</v>
           </cell>
         </row>
         <row r="67">
@@ -3767,37 +4721,8 @@
           <cell r="K72">
             <v>14.79228589864843</v>
           </cell>
-          <cell r="L72">
-            <v>0.83</v>
-          </cell>
           <cell r="M72">
             <v>0.88348847627639771</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="K73">
-            <v>20.79831353642864</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="K74">
-            <v>26.804341174208851</v>
-          </cell>
-          <cell r="L74">
-            <v>0.73</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="K75">
-            <v>32.789421395363384</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="K76">
-            <v>38.774501616517917</v>
-          </cell>
-          <cell r="L76">
-            <v>0.49</v>
           </cell>
         </row>
       </sheetData>
@@ -4072,8 +4997,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,7 +5607,7 @@
         <v>0.83947509527206421</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ref="Q3:Q66" si="2">IF(C10=$C$2,IF(I10=$I$2,K10,""),"")</f>
+        <f t="shared" ref="Q10:Q66" si="2">IF(C10=$C$2,IF(I10=$I$2,K10,""),"")</f>
         <v>1.18</v>
       </c>
       <c r="R10" s="4">
@@ -8654,7 +9579,7 @@
         <v>0.62516212463378906</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" ref="Q67:Q115" si="5">IF(C78=$C$2,IF(I78=$I$2,K78,""),"")</f>
+        <f t="shared" ref="Q78:Q104" si="5">IF(C78=$C$2,IF(I78=$I$2,K78,""),"")</f>
         <v>1.0</v>
       </c>
       <c r="R78" s="4">
@@ -10846,72 +11771,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="12" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43640.333333333336</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7">
+      <c r="C2" s="6"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7">
         <v>43640.333333333336</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>43640.458333333336</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>43640.543055555558</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>43641.333333333336</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>43641.461111111108</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>43641.54791666667</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>_xll.PITimeDat("FI-F2","6/24/2019 07:46","\\applepi","interpolated")</f>
         <v>37.88653564453125</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C3" s="6">
@@ -10923,66 +11847,52 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="H3">
-        <f>_xll.PITimeDat("\\APPLEPI\AI_K826",H2,"","interpolated")</f>
-        <v>0.73044943809509277</v>
       </c>
       <c r="I3">
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",I2,"","interpolated")</f>
-        <v>0.85076677799224854</v>
+        <v>0.73044943809509277</v>
       </c>
       <c r="J3">
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",J2,"","interpolated")</f>
-        <v>0.99465590715408325</v>
+        <v>0.85076677799224854</v>
       </c>
       <c r="K3">
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",K2,"","interpolated")</f>
-        <v>0.62516212463378906</v>
+        <v>0.99465590715408325</v>
       </c>
       <c r="L3">
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",L2,"","interpolated")</f>
-        <v>0.70046538114547729</v>
+        <v>0.62516212463378906</v>
       </c>
       <c r="M3">
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",M2,"","interpolated")</f>
+        <v>0.70046538114547729</v>
+      </c>
+      <c r="N3">
+        <f>_xll.PITimeDat("\\APPLEPI\AI_K826",N2,"","interpolated")</f>
         <v>0.88348847627639771</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="6">
         <f>C3+(C6-C3)/2</f>
         <v>11.196387066507997</v>
       </c>
-      <c r="G4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="9">
-        <v>21.696511920128625</v>
-      </c>
-      <c r="I4" s="9">
-        <v>16.634135651019992</v>
-      </c>
-      <c r="J4" s="9">
-        <v>10.844336667625409</v>
-      </c>
-      <c r="K4" s="9">
-        <v>26.314610824550186</v>
-      </c>
-      <c r="L4" s="9">
-        <v>22.99279291783655</v>
-      </c>
-      <c r="M4" s="9">
-        <v>15.29348426307012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C5" s="6">
@@ -10992,15 +11902,36 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="H5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="9">
+        <f>A3</f>
+        <v>37.88653564453125</v>
+      </c>
+      <c r="J5" s="9">
+        <f>A15</f>
+        <v>86.537590026855469</v>
+      </c>
+      <c r="K5" s="9">
+        <f>A27</f>
+        <v>100.16845703125</v>
+      </c>
+      <c r="L5" s="9">
+        <f>A39</f>
+        <v>40.885303497314453</v>
+      </c>
+      <c r="M5" s="9">
+        <f>A51</f>
+        <v>82.101356506347656</v>
+      </c>
+      <c r="N5" s="9">
+        <f>A63</f>
+        <v>85.903572082519531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="6">
@@ -11010,15 +11941,36 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="9">
+        <f>(-$J$8-SQRT($J$8^2-4*$I$8*($K$8-I3)))/(2*$I$8)</f>
+        <v>22.399392492848719</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:N6" si="0">(-$J$8-SQRT($J$8^2-4*$I$8*($K$8-J3)))/(2*$I$8)</f>
+        <v>17.087672010598943</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>11.038698467338275</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>27.266271954792529</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>23.763312886856678</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="0"/>
+        <v>15.684678056257384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="6">
@@ -11028,15 +11980,22 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="6">
@@ -11047,14 +12006,21 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="6"/>
+      <c r="I8" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="J8" s="9">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.2761</v>
+      </c>
+      <c r="L8" s="9"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="6">
@@ -11068,16 +12034,20 @@
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",A2,"","interpolated")</f>
         <v>0.73044943809509277</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>-0.27044943809509275</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="6">
@@ -11088,15 +12058,36 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="H10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="9">
+        <f>I5</f>
+        <v>37.88653564453125</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" ref="J10:N10" si="1">J5</f>
+        <v>86.537590026855469</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="1"/>
+        <v>100.16845703125</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
+        <v>40.885303497314453</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>82.101356506347656</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="1"/>
+        <v>85.903572082519531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C11" s="6">
@@ -11109,15 +12100,33 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="J11" s="9">
+        <f t="shared" ref="J11:N11" si="2">(J3-$J$13)/$I$13</f>
+        <v>18.732996119788634</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>11.574332977408796</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="2"/>
+        <v>29.957108227174675</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>26.210677554951381</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="2"/>
+        <v>17.105050931522506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C12" s="6">
@@ -11129,81 +12138,95 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="6">
         <f>2775*A$3^-0.959</f>
         <v>85.015081026762132</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1.2273000000000001</v>
+      </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>43640.458333333336</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="C14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <f>_xll.PITimeDat("FI-F2",A14,"\\applepi","interpolated")</f>
         <v>86.537590026855469</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="6">
         <f>122.2683*A$15^-0.9312</f>
         <v>1.9203870446079037</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>1.21</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="6">
         <f>C15+(C18-C15)/2</f>
         <v>5.1124557724631208</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="19" t="s">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C17" s="6">
@@ -11211,8 +12234,8 @@
         <v>6.7084901363907292</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C18" s="6">
@@ -11220,8 +12243,8 @@
         <v>8.3045245003183386</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C19" s="6">
@@ -11229,8 +12252,8 @@
         <v>9.9005588642459479</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C20" s="6">
@@ -11238,8 +12261,8 @@
         <v>11.496593228173555</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="6">
@@ -11253,164 +12276,169 @@
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",A14,"","interpolated")</f>
         <v>0.85076677799224854</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="F21">
+        <f>D21-E21</f>
+        <v>-7.6677799224855736E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C22" s="6">
         <f>C21+(C23-C21)/2</f>
         <v>20.652420031457346</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C23" s="6">
         <f>1909.8*A$15^-0.958</f>
         <v>26.616178106885915</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>0.71</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C24" s="6">
         <f>C23+(C25-C23)/2</f>
         <v>32.559102263444316</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19" t="s">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C25" s="6">
         <f>2775*A$15^-0.959</f>
         <v>38.502026420002721</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>0.47</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43640.543055555558</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f>_xll.PITimeDat("FI-F2",A26,"\\applepi","interpolated")</f>
         <v>100.16845703125</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C27" s="6">
         <f>122.2683*A$27^-0.9312</f>
         <v>1.6758424283183231</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>1.29</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C28" s="6">
         <f>C27+(C30-C27)/2</f>
         <v>4.4498251429977964</v>
       </c>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19" t="s">
+      <c r="H28" s="11"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C29" s="6">
         <f>C28+(C30-C28)/2</f>
         <v>5.8368165003375339</v>
       </c>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C30" s="6">
         <f>C27+(C33-C27)/2</f>
         <v>7.2238078576772704</v>
       </c>
-      <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C31" s="6">
         <f>C30+(C32-C30)/2</f>
         <v>8.610799215017007</v>
       </c>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C32" s="6">
         <f>C30+(C33-C30)/2</f>
         <v>9.9977905723567435</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="6">
@@ -11424,117 +12452,122 @@
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",A26,"","interpolated")</f>
         <v>0.99465590715408325</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="F33">
+        <f>D33-E33</f>
+        <v>7.534409284591681E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C34" s="6">
         <f>C33+(C35-C33)/2</f>
         <v>17.953868814634159</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C35" s="6">
         <f>1909.8*A$27^-0.958</f>
         <v>23.1359643422321</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>0.93</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C36" s="6">
         <f>C35+(C37-C35)/2</f>
         <v>28.299370459312239</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C37" s="6">
         <f>2775*A$27^-0.959</f>
         <v>33.462776576392379</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43641.333333333336</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f>_xll.PITimeDat("FI-F2",A38,"\\applepi","interpolated")</f>
         <v>40.885303497314453</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C39" s="6">
         <f>122.2683*A$39^-0.9312</f>
         <v>3.8603125888770262</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C40" s="6">
         <f>C39+(C42-C39)/2</f>
         <v>10.415475504038472</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C41" s="6">
@@ -11542,8 +12575,8 @@
         <v>13.693056961619195</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C42" s="6">
@@ -11551,8 +12584,8 @@
         <v>16.970638419199918</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C43" s="6">
@@ -11560,8 +12593,8 @@
         <v>20.248219876780642</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C44" s="6">
@@ -11569,8 +12602,8 @@
         <v>23.525801334361365</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="6">
@@ -11584,117 +12617,120 @@
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",A38,"","interpolated")</f>
         <v>0.62516212463378906</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
+      <c r="F45">
+        <f>D45-E45</f>
+        <v>-4.5162124633789102E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C46" s="6">
         <f>C45+(C47-C45)/2</f>
         <v>42.33506683761204</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C47" s="6">
         <f>1909.8*A$39^-0.958</f>
         <v>54.589169425701272</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>0.16</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="6">
         <f>C47+(C49-C47)/2</f>
         <v>66.807586319312009</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C49" s="6">
         <f>2775*A$39^-0.959</f>
         <v>79.026003212922731</v>
       </c>
-      <c r="D49" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>43641.461111111108</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <f>_xll.PITimeDat("FI-F2",A50,"\\applepi","interpolated")</f>
         <v>82.101356506347656</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C51" s="6">
         <f>122.2683*A$51^-0.9312</f>
         <v>2.016837203966154</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>1.24</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C52" s="6">
         <f>C51+(C54-C51)/2</f>
         <v>5.3742619249731831</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C53" s="6">
@@ -11702,8 +12738,8 @@
         <v>7.0529742854766972</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C54" s="6">
@@ -11711,8 +12747,8 @@
         <v>8.7316866459802114</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C55" s="6">
@@ -11720,8 +12756,8 @@
         <v>10.410399006483726</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C56" s="6">
@@ -11729,8 +12765,8 @@
         <v>12.089111366987241</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C57" s="6">
@@ -11744,117 +12780,122 @@
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",A50,"","interpolated")</f>
         <v>0.70046538114547729</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
+      <c r="F57">
+        <f>D57-E57</f>
+        <v>-4.6538114547733933E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C58" s="6">
         <f>C57+(C59-C57)/2</f>
         <v>21.719472389232934</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C59" s="6">
         <f>1909.8*A$51^-0.958</f>
         <v>27.992408690471592</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>0.68</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C60" s="6">
         <f>C59+(C61-C59)/2</f>
         <v>34.243686398732919</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C61" s="6">
         <f>2775*A$51^-0.959</f>
         <v>40.494964106994246</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>0.17</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>43641.54791666667</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <f>_xll.PITimeDat("FI-F2",A62,"\\applepi","interpolated")</f>
         <v>85.903572082519531</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C63" s="6">
         <f>122.2683*A$63^-0.9312</f>
         <v>1.9335821259648005</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>1.25</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C64" s="6">
         <f>C63+(C66-C63)/2</f>
         <v>5.148258069135708</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C65" s="6">
@@ -11862,8 +12903,8 @@
         <v>6.7555960407211622</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="19" t="s">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C66" s="6">
@@ -11871,8 +12912,8 @@
         <v>8.3629340123066154</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="19" t="s">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C67" s="6">
@@ -11880,8 +12921,8 @@
         <v>9.9702719838920686</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="19" t="s">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C68" s="6">
@@ -11889,8 +12930,8 @@
         <v>11.577609955477524</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C69" s="6">
@@ -11904,67 +12945,76 @@
         <f>_xll.PITimeDat("\\APPLEPI\AI_K826",A62,"","interpolated")</f>
         <v>0.88348847627639771</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="19" t="s">
+      <c r="F69">
+        <f>D69-E69</f>
+        <v>-5.3488476276397745E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C70" s="6">
         <f>C69+(C71-C69)/2</f>
         <v>20.79831353642864</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C71" s="6">
         <f>1909.8*A$63^-0.958</f>
         <v>26.804341174208851</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <v>0.73</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C72" s="6">
         <f>C71+(C73-C71)/2</f>
         <v>32.789421395363384</v>
       </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C73" s="6">
         <f>2775*A$63^-0.959</f>
         <v>38.774501616517917</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <v>0.49</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H74" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>